--- a/final_versions/grid-4.4/grid_1676.xlsx
+++ b/final_versions/grid-4.4/grid_1676.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Research\DoctralResearch-Summer2020\Work\ColocationMining\code\Mbr_Filter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Research\DoctralResearch-Summer2020\Work\ColocationMining\code\Mbr_Filter\final_versions\grid-4.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1">
         <v>4</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1">
         <v>8</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1">
         <v>15</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1">
         <v>19</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1">
         <v>20</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1">
         <v>22</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1">
         <v>19</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B51" s="1">
         <v>26</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B52" s="1">
         <v>41</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B53" s="1">
         <v>48</v>
